--- a/ky/downloads/data-excel/1.a.2.xlsx
+++ b/ky/downloads/data-excel/1.a.2.xlsx
@@ -624,11 +624,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -637,7 +635,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
@@ -659,7 +657,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
@@ -681,7 +679,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -697,7 +695,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
@@ -755,8 +753,11 @@
       <c r="S4" s="15">
         <v>2022</v>
       </c>
+      <c r="T4" s="15">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -814,8 +815,11 @@
       <c r="S5" s="16">
         <v>44</v>
       </c>
+      <c r="T5" s="16">
+        <v>43.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -873,8 +877,11 @@
       <c r="S6" s="34">
         <v>20.6</v>
       </c>
+      <c r="T6" s="34">
+        <v>19.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -932,8 +939,11 @@
       <c r="S7" s="32">
         <v>7.9</v>
       </c>
+      <c r="T7" s="32">
+        <v>7.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="S8" s="33">
         <v>15.5</v>
       </c>
+      <c r="T8" s="33">
+        <v>15.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
